--- a/output/sites/test_differences_sites_dm.xlsx
+++ b/output/sites/test_differences_sites_dm.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/test_differences_sites_dm.xlsx
+++ b/output/sites/test_differences_sites_dm.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
